--- a/Excel/Material-Aula05.xlsx
+++ b/Excel/Material-Aula05.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gustavo/Movies/DataClub/02. Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75186E96-A889-4769-BC78-B3DB4EA63B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="139" documentId="8_{0241DC0E-76B6-9944-BB0C-3CE22677188E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA87BAB7-A7B1-468B-81EE-9FC71D840EBC}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="1920" windowWidth="27440" windowHeight="16240" xr2:uid="{62A9961E-078D-1740-84CD-9638BC0D7D30}"/>
+    <workbookView xWindow="1800" yWindow="1920" windowWidth="27440" windowHeight="16240" activeTab="2" xr2:uid="{62A9961E-078D-1740-84CD-9638BC0D7D30}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Detalhes1" sheetId="3" state="hidden" r:id="rId2"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
+  <pivotCaches>
+    <pivotCache cacheId="9906" r:id="rId4"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="30">
   <si>
     <t>DATA</t>
   </si>
@@ -108,6 +113,24 @@
   </si>
   <si>
     <t>Filtros e Classificação</t>
+  </si>
+  <si>
+    <t>Detalhes do Contagem de QTD - Cliente: Gabriel Oliveira, DATA: 10/1/2024 (+)</t>
+  </si>
+  <si>
+    <t>(Tudo)</t>
+  </si>
+  <si>
+    <t>Soma de ID_PEDIDO</t>
+  </si>
+  <si>
+    <t>Contagem de QTD</t>
+  </si>
+  <si>
+    <t>Soma de TOTAL</t>
+  </si>
+  <si>
+    <t>Total Geral</t>
   </si>
 </sst>
 </file>
@@ -117,7 +140,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -129,6 +152,14 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -242,7 +273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -268,11 +299,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="12">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
       <fill>
@@ -535,18 +572,313 @@
 </styleSheet>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Excel Services" refreshedDate="45447.60991550926" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="10" xr:uid="{151962EA-36D1-4857-8D40-C2536CCBF7A0}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Tabela1"/>
+  </cacheSource>
+  <cacheFields count="6">
+    <cacheField name="DATA" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2024-10-01T00:00:00" maxDate="2024-10-06T00:00:00" count="5">
+        <d v="2024-10-01T00:00:00"/>
+        <d v="2024-10-02T00:00:00"/>
+        <d v="2024-10-03T00:00:00"/>
+        <d v="2024-10-04T00:00:00"/>
+        <d v="2024-10-05T00:00:00"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="ID_PEDIDO" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="10200424" maxValue="10200433" count="10">
+        <n v="10200424"/>
+        <n v="10200425"/>
+        <n v="10200426"/>
+        <n v="10200427"/>
+        <n v="10200428"/>
+        <n v="10200429"/>
+        <n v="10200430"/>
+        <n v="10200431"/>
+        <n v="10200432"/>
+        <n v="10200433"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Cliente" numFmtId="0">
+      <sharedItems count="10">
+        <s v="Ana Carolina Silva"/>
+        <s v="Gabriel Oliveira"/>
+        <s v="Mariana Santos"/>
+        <s v="Lucas Pereira"/>
+        <s v="Camila Costa"/>
+        <s v="Pedro Henrique Lima"/>
+        <s v="Isabella Souza"/>
+        <s v="Rafael Martins"/>
+        <s v="Larissa Mendes"/>
+        <s v="Thiago Oliveira"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="PRODUTO" numFmtId="0">
+      <sharedItems count="7">
+        <s v="Produto 01"/>
+        <s v="Produto 02"/>
+        <s v="Produto 03"/>
+        <s v="Produto 04"/>
+        <s v="Produto 05"/>
+        <s v="Produto 06"/>
+        <s v="Produto 07"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="QTD" numFmtId="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="15"/>
+    </cacheField>
+    <cacheField name="TOTAL" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="12.9" maxValue="600"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="10">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="14"/>
+    <n v="31.360000000000003"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="13"/>
+    <n v="197.6"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="9"/>
+    <n v="288"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="4"/>
+    <n v="600"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="12.9"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="15"/>
+    <n v="29.85"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <n v="7"/>
+    <n v="112"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="8"/>
+    <n v="17.920000000000002"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="1"/>
+    <n v="13"/>
+    <n v="197.6"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="2"/>
+    <n v="8"/>
+    <n v="256"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F7EF7EDD-F170-4E67-B7FC-153996ECDBEB}" name="Tabela dinâmica1" cacheId="9906" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="A4:D12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisPage" compact="0" numFmtId="14" outline="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" compact="0" outline="0" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" compact="0" numFmtId="1" outline="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" numFmtId="164" outline="0" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="0" hier="-1"/>
+    <pageField fld="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="3">
+    <dataField name="Soma de ID_PEDIDO" fld="1" baseField="0" baseItem="0"/>
+    <dataField name="Contagem de QTD" fld="4" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Soma de TOTAL" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C1AF204B-B4F7-4D99-BD56-5D75B616D49B}" name="Tabela1" displayName="Tabela1" ref="B2:G12" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" headerRowBorderDxfId="7" tableBorderDxfId="8" totalsRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C1AF204B-B4F7-4D99-BD56-5D75B616D49B}" name="Tabela1" displayName="Tabela1" ref="B2:G12" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7">
   <autoFilter ref="B2:G12" xr:uid="{C1AF204B-B4F7-4D99-BD56-5D75B616D49B}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{DA4A8625-9688-4B2B-B7E4-40188A613D09}" name="DATA" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{3C59F887-B752-479E-827B-093C2D2ED300}" name="ID_PEDIDO" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{CEBDE643-0F1C-40C5-88FE-1240B430FA93}" name="Cliente" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{2E914295-7207-4C0D-AA40-471E48F5405D}" name="PRODUTO" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{3072A8B2-CFDA-4819-BF5C-11D7D4F62C1A}" name="QTD" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{0E7D29F6-0F9F-49F2-8C07-744D70228C6D}" name="TOTAL" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{DA4A8625-9688-4B2B-B7E4-40188A613D09}" name="DATA" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{3C59F887-B752-479E-827B-093C2D2ED300}" name="ID_PEDIDO" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{CEBDE643-0F1C-40C5-88FE-1240B430FA93}" name="Cliente" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{2E914295-7207-4C0D-AA40-471E48F5405D}" name="PRODUTO" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{3072A8B2-CFDA-4819-BF5C-11D7D4F62C1A}" name="QTD" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{0E7D29F6-0F9F-49F2-8C07-744D70228C6D}" name="TOTAL" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C861D9AB-A956-4E12-8271-30180D7D3181}" name="Tabela2" displayName="Tabela2" ref="A3:F4" totalsRowShown="0">
+  <autoFilter ref="A3:F4" xr:uid="{C861D9AB-A956-4E12-8271-30180D7D3181}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:F4">
+    <sortCondition ref="E3:E4"/>
+  </sortState>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{E7E1281F-D905-40E1-A9DF-646F0DCAED00}" name="DATA" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{AC16EC00-0A41-4583-B653-A925EF17974C}" name="ID_PEDIDO"/>
+    <tableColumn id="3" xr3:uid="{FC647999-8CF0-4E34-983A-7291963E76E9}" name="Cliente"/>
+    <tableColumn id="4" xr3:uid="{1038A96B-3482-4C31-B8BE-859CCB151120}" name="PRODUTO"/>
+    <tableColumn id="5" xr3:uid="{F202D5B6-B7AD-40F6-9F28-ED1590ED1A03}" name="QTD"/>
+    <tableColumn id="6" xr3:uid="{CCAC63CD-32DE-4476-972E-5F4B006C1058}" name="TOTAL"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -849,8 +1181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCE7AF2A-340B-9045-AA26-D9FBDC262AEB}">
   <dimension ref="B1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" customHeight="1"/>
@@ -1148,4 +1480,239 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D52702C6-AAF2-496A-ABF1-778A5FF8B0DA}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>45566</v>
+      </c>
+      <c r="B4">
+        <v>10200425</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>13</v>
+      </c>
+      <c r="F4">
+        <v>197.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77BCF53B-23FB-4033-98FE-B53E068323A5}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="21" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="14">
+        <v>20400855</v>
+      </c>
+      <c r="C5" s="14">
+        <v>2</v>
+      </c>
+      <c r="D5" s="14">
+        <v>49.28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="14">
+        <v>20400857</v>
+      </c>
+      <c r="C6" s="14">
+        <v>2</v>
+      </c>
+      <c r="D6" s="14">
+        <v>395.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="14">
+        <v>20400859</v>
+      </c>
+      <c r="C7" s="14">
+        <v>2</v>
+      </c>
+      <c r="D7" s="14">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="14">
+        <v>10200427</v>
+      </c>
+      <c r="C8" s="14">
+        <v>1</v>
+      </c>
+      <c r="D8" s="14">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="14">
+        <v>10200428</v>
+      </c>
+      <c r="C9" s="14">
+        <v>1</v>
+      </c>
+      <c r="D9" s="14">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="14">
+        <v>10200429</v>
+      </c>
+      <c r="C10" s="14">
+        <v>1</v>
+      </c>
+      <c r="D10" s="14">
+        <v>29.85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="14">
+        <v>10200430</v>
+      </c>
+      <c r="C11" s="14">
+        <v>1</v>
+      </c>
+      <c r="D11" s="14">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="14">
+        <v>102004285</v>
+      </c>
+      <c r="C12" s="14">
+        <v>10</v>
+      </c>
+      <c r="D12" s="14">
+        <v>1743.23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>